--- a/Detail Design/HRM_File List.xlsx
+++ b/Detail Design/HRM_File List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854"/>
   </bookViews>
   <sheets>
     <sheet name="File List" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
   <si>
     <t>Curriculum Tae</t>
   </si>
@@ -291,10 +291,6 @@
 EditStaffHistoryViewModel.cs</t>
   </si>
   <si>
-    <t>ListFamilyRelationshipManagementViewModel.cs
-EditFamilyRelationshipManagementViewModel.cs</t>
-  </si>
-  <si>
     <t xml:space="preserve">ListSupportedPeopleManagementViewModel.cs
 EditSupportedPeopleManagementViewModel.cs
 </t>
@@ -461,18 +457,9 @@
     <t>ScienceResearchGuidelineOfStude</t>
   </si>
   <si>
-    <t>Class handles actions that requested from EditSubjectManagement GUI and then display information to ListSubjectManagement GUI</t>
-  </si>
-  <si>
-    <t>Class handles actions and then display information to ListSubjectManagement GUI</t>
-  </si>
-  <si>
     <t>GUI Class contains operations invoked from ListSubjectManagementView class</t>
   </si>
   <si>
-    <t>Screen design class contains list of data of HRM and Subjection for themselves.</t>
-  </si>
-  <si>
     <t>HRM.client</t>
   </si>
   <si>
@@ -486,6 +473,124 @@
   </si>
   <si>
     <t>ExpandInformationModel.cs</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one person and Subjection for themselves.</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListSubjectManagementView class</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditSubjectManagementView and then display information to ListSubjectManagementView class</t>
+  </si>
+  <si>
+    <t>This class inherits event handlder from Expandinformation class to imlement.</t>
+  </si>
+  <si>
+    <t>This class desclare event hanlder to ExpandinformtionModel class used.</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListWorkManagementView
+EditWorkManagementView
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListWorkManagementViewModel.cs
+EditWorkManagementViewModel.cs
+</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListOtherManagementView
+EditOtherManagementView
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListOtherManagementViewModel.cs
+EditOtherManagementViewModel.cs
+</t>
+  </si>
+  <si>
+    <t>ListSalaryCoefficientManagementView</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one person and SalaryCoefficiention for themselves.</t>
+  </si>
+  <si>
+    <t>EditSalaryCoefficientManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListSalaryCoefficientManagementView class</t>
+  </si>
+  <si>
+    <t>ListSalaryCoefficientManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListSalaryCoefficientManagementView class</t>
+  </si>
+  <si>
+    <t>EditSalaryCoefficientManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditSalaryCoefficientManagementView and then display information to ListSalaryCoefficientManagementView class</t>
+  </si>
+  <si>
+    <t>ListIncomeManagementView</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one person and Incomeion for themselves.</t>
+  </si>
+  <si>
+    <t>EditIncomeManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListIncomeManagementView class</t>
+  </si>
+  <si>
+    <t>ListIncomeManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListIncomeManagementView class</t>
+  </si>
+  <si>
+    <t>EditIncomeManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditIncomeManagementView and then display information to ListIncomeManagementView class</t>
+  </si>
+  <si>
+    <t>ListFacilitateManagementView</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one person and Facilitateion for themselves.</t>
+  </si>
+  <si>
+    <t>EditFacilitateManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListFacilitateManagementView class</t>
+  </si>
+  <si>
+    <t>ListFacilitateManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListFacilitateManagementView class</t>
+  </si>
+  <si>
+    <t>EditFacilitateManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditFacilitateManagementView and then display information to ListFacilitateManagementView class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListFamilyRelationshipManagementViewModel.cs
+EditFamilyRelationshipManagementViewModel.cs
+</t>
   </si>
 </sst>
 </file>
@@ -615,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -641,21 +746,27 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -958,15 +1069,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
     <col min="2" max="2" width="34.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
@@ -977,25 +1088,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>87</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -1013,7 +1124,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -1034,7 +1145,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
         <v>6</v>
@@ -1043,7 +1154,7 @@
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>62</v>
+        <v>142</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1058,7 +1169,7 @@
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1073,7 +1184,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1088,7 +1199,7 @@
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1103,7 +1214,7 @@
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1118,7 +1229,7 @@
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1133,7 +1244,7 @@
         <v>39</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1148,7 +1259,7 @@
         <v>40</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1163,7 +1274,7 @@
         <v>41</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1178,7 +1289,7 @@
         <v>42</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1193,7 +1304,7 @@
         <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1202,7 +1313,7 @@
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>44</v>
@@ -1217,13 +1328,13 @@
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1238,7 +1349,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1253,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1268,7 +1379,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1283,7 +1394,7 @@
         <v>49</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1298,7 +1409,7 @@
         <v>50</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1313,7 +1424,7 @@
         <v>51</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1328,7 +1439,7 @@
         <v>52</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1358,7 +1469,7 @@
         <v>54</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1373,7 +1484,7 @@
         <v>55</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1388,7 +1499,7 @@
         <v>56</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1403,7 +1514,7 @@
         <v>57</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1418,11 +1529,39 @@
         <v>58</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1446,21 +1585,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,7 +1659,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1538,7 +1677,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,21 +1688,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1623,7 +1762,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1652,21 +1791,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1726,7 +1865,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1741,101 +1880,98 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
-    <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="116.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.42578125" customWidth="1"/>
+    <col min="3" max="3" width="123.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>106</v>
+      <c r="A3" s="14" t="s">
+        <v>102</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="15"/>
       <c r="B4" s="1" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>90</v>
+      <c r="A7" s="14" t="s">
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1863,21 +1999,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1937,7 +2073,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1966,21 +2102,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2040,7 +2176,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2069,21 +2205,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2143,7 +2279,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2172,21 +2308,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2246,7 +2382,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2275,21 +2411,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="A1" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2349,7 +2485,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2378,21 +2514,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2452,7 +2588,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2481,21 +2617,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2555,7 +2691,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2584,21 +2720,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2658,7 +2794,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2687,21 +2823,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2761,7 +2897,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2790,21 +2926,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,7 +3000,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2893,21 +3029,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2967,7 +3103,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2982,102 +3118,104 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>125</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3085,102 +3223,104 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="A3" sqref="A3:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="115.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>133</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3202,21 +3342,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3276,7 +3416,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3305,21 +3445,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3379,7 +3519,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3408,21 +3548,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3482,7 +3622,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3497,102 +3637,104 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="116.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="15"/>
+      <c r="B4" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>141</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3614,21 +3756,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3688,7 +3830,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3717,21 +3859,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3791,7 +3933,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3820,21 +3962,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3894,7 +4036,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3923,21 +4065,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3997,7 +4139,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4026,21 +4168,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,7 +4242,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4129,21 +4271,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4203,7 +4345,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4232,21 +4374,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
-        <v>96</v>
+      <c r="A2" s="11" t="s">
+        <v>95</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4306,7 +4448,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>

--- a/Detail Design/HRM_File List.xlsx
+++ b/Detail Design/HRM_File List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="File List" sheetId="1" r:id="rId1"/>
@@ -36,13 +36,15 @@
     <sheet name="Union" sheetId="35" r:id="rId27"/>
     <sheet name=" TradeUnion" sheetId="36" r:id="rId28"/>
     <sheet name="Facilitate" sheetId="37" r:id="rId29"/>
+    <sheet name="Work" sheetId="38" r:id="rId30"/>
+    <sheet name="Other" sheetId="39" r:id="rId31"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="168">
   <si>
     <t>Curriculum Tae</t>
   </si>
@@ -135,9 +137,6 @@
     <t>Subject</t>
   </si>
   <si>
-    <t>Artical</t>
-  </si>
-  <si>
     <t>Facilitate</t>
   </si>
   <si>
@@ -591,13 +590,91 @@
     <t xml:space="preserve">ListFamilyRelationshipManagementViewModel.cs
 EditFamilyRelationshipManagementViewModel.cs
 </t>
+  </si>
+  <si>
+    <t>FamilyRelationshipManagement</t>
+  </si>
+  <si>
+    <t>SupportedPeopleManagement</t>
+  </si>
+  <si>
+    <t>TraningCourseInformationManagement</t>
+  </si>
+  <si>
+    <t>TrainingResultInformationManagement</t>
+  </si>
+  <si>
+    <t>InternalTrainingManagement</t>
+  </si>
+  <si>
+    <t>LecturePositionManagement</t>
+  </si>
+  <si>
+    <t>TaskNotebookManagement</t>
+  </si>
+  <si>
+    <t>AppointManagement</t>
+  </si>
+  <si>
+    <t>CertificateManagement</t>
+  </si>
+  <si>
+    <t>OtherManagement</t>
+  </si>
+  <si>
+    <t>WorkManagement</t>
+  </si>
+  <si>
+    <t>FacilitateManagement</t>
+  </si>
+  <si>
+    <t>TradeUnionManagement</t>
+  </si>
+  <si>
+    <t>UnionManagement</t>
+  </si>
+  <si>
+    <t>CommunistPartyManagement</t>
+  </si>
+  <si>
+    <t>IncomeManagement</t>
+  </si>
+  <si>
+    <t>SalaryCoefficientManagement</t>
+  </si>
+  <si>
+    <t>EmulationManagement</t>
+  </si>
+  <si>
+    <t>PenaltyManagement</t>
+  </si>
+  <si>
+    <t>RewardManagement</t>
+  </si>
+  <si>
+    <t>StaffInternshipManagement</t>
+  </si>
+  <si>
+    <t>LecturerProbationManagement</t>
+  </si>
+  <si>
+    <t>ProductManagement</t>
+  </si>
+  <si>
+    <t>SyllabusManagement</t>
+  </si>
+  <si>
+    <t>SubjectManagement</t>
+  </si>
+  <si>
+    <t>ArticalManagement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -633,6 +710,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -717,10 +802,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -747,6 +833,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -762,14 +851,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1071,8 +1161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,30 +1178,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C1" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>91</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1124,7 +1214,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -1132,14 +1222,14 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1147,14 +1237,14 @@
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
+      <c r="B4" s="18" t="s">
+        <v>142</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1162,14 +1252,14 @@
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="3" t="s">
-        <v>10</v>
+      <c r="B5" s="18" t="s">
+        <v>143</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1177,14 +1267,14 @@
     </row>
     <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="3" t="s">
-        <v>13</v>
+      <c r="B6" s="18" t="s">
+        <v>144</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1192,14 +1282,14 @@
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="3" t="s">
-        <v>14</v>
+      <c r="B7" s="18" t="s">
+        <v>145</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1207,14 +1297,14 @@
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="3" t="s">
-        <v>16</v>
+      <c r="B8" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1222,14 +1312,14 @@
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
+      <c r="B9" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1237,14 +1327,14 @@
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="3" t="s">
-        <v>21</v>
+      <c r="B10" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1252,14 +1342,14 @@
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="3" t="s">
-        <v>22</v>
+      <c r="B11" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1267,14 +1357,14 @@
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
+      <c r="B12" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1282,14 +1372,14 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
+      <c r="B13" s="18" t="s">
+        <v>166</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1297,14 +1387,14 @@
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="3" t="s">
-        <v>25</v>
+      <c r="B14" s="18" t="s">
+        <v>167</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1312,14 +1402,14 @@
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="3" t="s">
-        <v>98</v>
+      <c r="B15" s="18" t="s">
+        <v>165</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -1327,14 +1417,14 @@
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="3" t="s">
-        <v>99</v>
+      <c r="B16" s="18" t="s">
+        <v>164</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1342,14 +1432,14 @@
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="3" t="s">
-        <v>38</v>
+      <c r="B17" s="18" t="s">
+        <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1357,14 +1447,14 @@
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="3" t="s">
-        <v>37</v>
+      <c r="B18" s="18" t="s">
+        <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1372,14 +1462,14 @@
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="3" t="s">
-        <v>36</v>
+      <c r="B19" s="18" t="s">
+        <v>163</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1387,14 +1477,14 @@
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="3" t="s">
-        <v>35</v>
+      <c r="B20" s="18" t="s">
+        <v>162</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1402,14 +1492,14 @@
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="3" t="s">
-        <v>34</v>
+      <c r="B21" s="18" t="s">
+        <v>161</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1417,14 +1507,14 @@
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="3" t="s">
-        <v>33</v>
+      <c r="B22" s="18" t="s">
+        <v>160</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1432,14 +1522,14 @@
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="3" t="s">
-        <v>32</v>
+      <c r="B23" s="18" t="s">
+        <v>159</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1447,14 +1537,14 @@
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="3" t="s">
-        <v>31</v>
+      <c r="B24" s="18" t="s">
+        <v>158</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1462,14 +1552,14 @@
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="3" t="s">
-        <v>30</v>
+      <c r="B25" s="18" t="s">
+        <v>157</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1477,14 +1567,14 @@
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="3" t="s">
-        <v>29</v>
+      <c r="B26" s="18" t="s">
+        <v>156</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1492,14 +1582,14 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="3" t="s">
-        <v>28</v>
+      <c r="B27" s="18" t="s">
+        <v>155</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1507,14 +1597,14 @@
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="3" t="s">
-        <v>27</v>
+      <c r="B28" s="18" t="s">
+        <v>154</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1522,14 +1612,14 @@
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="3" t="s">
-        <v>26</v>
+      <c r="B29" s="18" t="s">
+        <v>153</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1537,33 +1627,65 @@
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>112</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="D30" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>117</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="'Curriculum Tae'!A1" display="Curriculum Tae"/>
+    <hyperlink ref="B3" location="StaffHistory!A1" display="StaffHistory"/>
+    <hyperlink ref="B4" location="FamilyRelationship!A1" display="FamilyRelationshipManagement"/>
+    <hyperlink ref="B5" location="SupportedPeople!A1" display="SupportedPeopleManagement"/>
+    <hyperlink ref="B6" location="TraningCourseInformation!A1" display="TraningCourseInformationManagement"/>
+    <hyperlink ref="B7" location="TrainingResultInformation!A1" display="TrainingResultInformationManagement"/>
+    <hyperlink ref="B8" location="InternalTraining!A1" display="InternalTrainingManagement"/>
+    <hyperlink ref="B9" location="LecturePosition!A1" display="LecturePositionManagement"/>
+    <hyperlink ref="B10" location="TaskNotebook!A1" display="TaskNotebookManagement"/>
+    <hyperlink ref="B11" location="Appoint!A1" display="AppointManagement"/>
+    <hyperlink ref="B12" location="Certificate!A1" display="CertificateManagement"/>
+    <hyperlink ref="B13" location="Subject!A1" display="SubjectManagement"/>
+    <hyperlink ref="B14" location="Artical!A1" display="ArticalManagement"/>
+    <hyperlink ref="B15" location="Syllabus!A1" display="SyllabusManagement"/>
+    <hyperlink ref="B16" location="Product!A1" display="ProductManagement"/>
+    <hyperlink ref="B17" location="MasterThesisGuideline!A1" display="MasterThesisGuideline"/>
+    <hyperlink ref="B18" location="ScienceResearchGuidelineOfStude!A1" display="ScienceResearchGuidelineOfStudent"/>
+    <hyperlink ref="B19" location="' LecturerProbation'!A1" display="LecturerProbationManagement"/>
+    <hyperlink ref="B20" location="StaffInternship!A1" display="StaffInternshipManagement"/>
+    <hyperlink ref="B21" location="Reward!A1" display="RewardManagement"/>
+    <hyperlink ref="B22" location="Penalty!A1" display="PenaltyManagement"/>
+    <hyperlink ref="B23" location="Emulation!A1" display="EmulationManagement"/>
+    <hyperlink ref="B24" location="SalaryCoefficient!A1" display="SalaryCoefficientManagement"/>
+    <hyperlink ref="B25" location="Income!A1" display="IncomeManagement"/>
+    <hyperlink ref="B26" location="CommunistParty!A1" display="CommunistPartyManagement"/>
+    <hyperlink ref="B27" location="CommunistParty!A1" display="UnionManagement"/>
+    <hyperlink ref="B28" location="' TradeUnion'!A1" display="TradeUnionManagement"/>
+    <hyperlink ref="B29" location="Facilitate!A1" display="FacilitateManagement"/>
+    <hyperlink ref="B30" location="Work!A1" display="WorkManagement"/>
+    <hyperlink ref="B31" location="Other!A1" display="OtherManagement"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1585,21 +1707,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1659,7 +1781,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1688,21 +1810,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,7 +1884,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1791,21 +1913,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1865,7 +1987,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -1894,83 +2016,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>102</v>
+      <c r="A3" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
+      <c r="A4" s="16"/>
       <c r="B4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>89</v>
+      <c r="A7" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="6" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1999,21 +2121,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2073,7 +2195,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2102,21 +2224,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2176,7 +2298,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2205,21 +2327,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2279,7 +2401,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2308,21 +2430,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2382,7 +2504,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2411,21 +2533,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2485,7 +2607,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2514,21 +2636,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2588,7 +2710,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2606,7 +2728,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:C16"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2617,21 +2739,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2691,7 +2813,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -2720,21 +2842,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2794,7 +2916,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2823,21 +2945,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -2897,7 +3019,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -2926,21 +3048,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3000,7 +3122,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3029,21 +3151,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3103,7 +3225,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3132,83 +3254,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>102</v>
+      <c r="A3" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>120</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>89</v>
+      <c r="A7" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>124</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>125</v>
       </c>
     </row>
   </sheetData>
@@ -3237,83 +3359,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>102</v>
+      <c r="A3" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>89</v>
+      <c r="A7" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3342,21 +3464,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,7 +3538,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3445,21 +3567,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3519,7 +3641,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3548,21 +3670,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3622,7 +3744,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3651,83 +3773,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="A1" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>102</v>
+      <c r="A3" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="C3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="15"/>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>89</v>
+      <c r="A7" s="15" t="s">
+        <v>88</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="15"/>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="12" t="s">
         <v>140</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3745,7 +3867,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3756,21 +3878,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3830,7 +3952,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3838,6 +3960,216 @@
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="116.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="116.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="16"/>
+      <c r="B4" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="15" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3859,21 +4191,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3933,7 +4265,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -3962,21 +4294,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4036,7 +4368,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4065,21 +4397,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4139,7 +4471,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4156,8 +4488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4168,21 +4500,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4242,7 +4574,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4271,21 +4603,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4345,7 +4677,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -4374,21 +4706,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -4448,7 +4780,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>

--- a/Detail Design/HRM_File List.xlsx
+++ b/Detail Design/HRM_File List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="File List" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="368">
   <si>
     <t>Curriculum Tae</t>
   </si>
@@ -295,11 +295,6 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">ListTraningCourseInformationViewModel.cs
-EditTraningCourseInformationViewModel.cs
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ListTrainingResultInformationViewModel.cs
 EditTrainingResultInformationViewModel.cs
 </t>
@@ -441,9 +436,6 @@
     <t>Package</t>
   </si>
   <si>
-    <t>Pakage: là class đó nằm ở HRM nào ( HRM.Client, HRM.Common, HRM.Model, HRM.Service) , làm xong nhớ xóa dòng này nha</t>
-  </si>
-  <si>
     <t>Article</t>
   </si>
   <si>
@@ -484,9 +476,6 @@
   </si>
   <si>
     <t>This class inherits event handlder from Expandinformation class to imlement.</t>
-  </si>
-  <si>
-    <t>This class desclare event hanlder to ExpandinformtionModel class used.</t>
   </si>
   <si>
     <t>Work</t>
@@ -668,6 +657,616 @@
   </si>
   <si>
     <t>ArticalManagement</t>
+  </si>
+  <si>
+    <t>EditEmployeeView</t>
+  </si>
+  <si>
+    <t>UserControlEducationView</t>
+  </si>
+  <si>
+    <t>UserControlOccupationView</t>
+  </si>
+  <si>
+    <t>UserControlOverView</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ListEmployeeView
+</t>
+  </si>
+  <si>
+    <t>UserControlPolisticView</t>
+  </si>
+  <si>
+    <t>HRM.Client</t>
+  </si>
+  <si>
+    <t>EditEmployeeViewModel.cs</t>
+  </si>
+  <si>
+    <t>ListEmployeeViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListEmployeeView class</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditEmployeeView and then display information to ListEmployeeManagementView class</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one employee and Incomeion for themselves.</t>
+  </si>
+  <si>
+    <t>Main class used to invoke all others view class that related to employee.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUI class used to display all information about employee's education </t>
+  </si>
+  <si>
+    <t>GUI class used to display all information about employee's occupation</t>
+  </si>
+  <si>
+    <t>GUI class used to display all information about employee's general information</t>
+  </si>
+  <si>
+    <t>GUI class used to display all information about employee's polistic</t>
+  </si>
+  <si>
+    <t>ListStaffHistoryView</t>
+  </si>
+  <si>
+    <t>EditStaffHistoryView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListStaffHistoryView class</t>
+  </si>
+  <si>
+    <t>ListStaffHistoryViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListStaffHistoryView class</t>
+  </si>
+  <si>
+    <t>EditStaffHistoryViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditStaffHistoryView and then display information to ListStaffHistoryView class</t>
+  </si>
+  <si>
+    <t>ListFanilyRelationshipManagementView</t>
+  </si>
+  <si>
+    <t>EditFanilyRelationshipManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListFanilyRelationshipManagementView class</t>
+  </si>
+  <si>
+    <t>ListFanilyRelationshipManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListFanilyRelationshipManagementView class</t>
+  </si>
+  <si>
+    <t>EditFanilyRelationshipManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditFanilyRelationshipManagementView and then display information to ListFanilyRelationshipManagementView class</t>
+  </si>
+  <si>
+    <t>ListSupportPeopleManagementView</t>
+  </si>
+  <si>
+    <t>EditSupportPeopleManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListSupportPeopleManagementView class</t>
+  </si>
+  <si>
+    <t>ListSupportPeopleManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListSupportPeopleManagementView class</t>
+  </si>
+  <si>
+    <t>EditSupportPeopleManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditSupportPeopleManagementView and then display information to ListSupportPeopleManagementView class</t>
+  </si>
+  <si>
+    <t>ListTraningCourseInformationManagementView</t>
+  </si>
+  <si>
+    <t>EditTraningCourseInformationManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListTraningCourseInformationManagementView class</t>
+  </si>
+  <si>
+    <t>ListTraningCourseInformationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListTraningCourseInformationManagementView class</t>
+  </si>
+  <si>
+    <t>EditTraningCourseInformationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditTraningCourseInformationManagementView and then display information to ListTraningCourseInformationManagementView class</t>
+  </si>
+  <si>
+    <t>ListTrainingResultInformationManagementView</t>
+  </si>
+  <si>
+    <t>EditTrainingResultInformationManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListTrainingResultInformationManagementView class</t>
+  </si>
+  <si>
+    <t>ListTrainingResultInformationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListTrainingResultInformationManagementView class</t>
+  </si>
+  <si>
+    <t>EditTrainingResultInformationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditTrainingResultInformationManagementView and then display information to ListTrainingResultInformationManagementView class</t>
+  </si>
+  <si>
+    <t>ListInternalTrainingManagementView</t>
+  </si>
+  <si>
+    <t>EditInternalTrainingManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListInternalTrainingManagementView class</t>
+  </si>
+  <si>
+    <t>ListInternalTrainingManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListInternalTrainingManagementView class</t>
+  </si>
+  <si>
+    <t>EditInternalTrainingManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditInternalTrainingManagementView and then display information to ListInternalTrainingManagementView class</t>
+  </si>
+  <si>
+    <t>ListLecturePositionManagementView</t>
+  </si>
+  <si>
+    <t>EditLecturePositionManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListLecturePositionManagementView class</t>
+  </si>
+  <si>
+    <t>ListLecturePositionManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListLecturePositionManagementView class</t>
+  </si>
+  <si>
+    <t>EditLecturePositionManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditLecturePositionManagementView and then display information to ListLecturePositionManagementView class</t>
+  </si>
+  <si>
+    <t>ListTaskNotebookManagementView</t>
+  </si>
+  <si>
+    <t>EditTaskNotebookManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListTaskNotebookManagementView class</t>
+  </si>
+  <si>
+    <t>ListTaskNotebookManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListTaskNotebookManagementView class</t>
+  </si>
+  <si>
+    <t>EditTaskNotebookManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditTaskNotebookManagementView and then display information to ListTaskNotebookManagementView class</t>
+  </si>
+  <si>
+    <t>ListAppointManagementView</t>
+  </si>
+  <si>
+    <t>EditAppointManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListAppointManagementView class</t>
+  </si>
+  <si>
+    <t>ListAppointManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListAppointManagementView class</t>
+  </si>
+  <si>
+    <t>EditAppointManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditAppointManagementView and then display information to ListAppointManagementView class</t>
+  </si>
+  <si>
+    <t>ListCertificateManagementView</t>
+  </si>
+  <si>
+    <t>EditCertificateManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListCertificateManagementView class</t>
+  </si>
+  <si>
+    <t>ListCertificateManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListCertificateManagementView class</t>
+  </si>
+  <si>
+    <t>EditCertificateManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditCertificateManagementView and then display information to ListCertificateManagementView class</t>
+  </si>
+  <si>
+    <t>ListArticalManagementView</t>
+  </si>
+  <si>
+    <t>EditArticalManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListArticalManagementView class</t>
+  </si>
+  <si>
+    <t>ListArticalManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListArticalManagementView class</t>
+  </si>
+  <si>
+    <t>EditArticalManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditArticalManagementView and then display information to ListArticalManagementView class</t>
+  </si>
+  <si>
+    <t>ListSyllabusManagementView</t>
+  </si>
+  <si>
+    <t>EditSyllabusManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListSyllabusManagementView class</t>
+  </si>
+  <si>
+    <t>ListSyllabusManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListSyllabusManagementView class</t>
+  </si>
+  <si>
+    <t>EditSyllabusManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditSyllabusManagementView and then display information to ListSyllabusManagementView class</t>
+  </si>
+  <si>
+    <t>ListProductManagementView</t>
+  </si>
+  <si>
+    <t>EditProductManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListProductManagementView class</t>
+  </si>
+  <si>
+    <t>ListProductManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListProductManagementView class</t>
+  </si>
+  <si>
+    <t>EditProductManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditProductManagementView and then display information to ListProductManagementView class</t>
+  </si>
+  <si>
+    <t>List LecturerProbationManagementView</t>
+  </si>
+  <si>
+    <t>Edit LecturerProbationManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from List LecturerProbationManagementView class</t>
+  </si>
+  <si>
+    <t>List LecturerProbationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to List LecturerProbationManagementView class</t>
+  </si>
+  <si>
+    <t>Edit LecturerProbationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from Edit LecturerProbationManagementView and then display information to List LecturerProbationManagementView class</t>
+  </si>
+  <si>
+    <t>List StaffInternshipManagementView</t>
+  </si>
+  <si>
+    <t>Edit StaffInternshipManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from List StaffInternshipManagementView class</t>
+  </si>
+  <si>
+    <t>List StaffInternshipManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to List StaffInternshipManagementView class</t>
+  </si>
+  <si>
+    <t>Edit StaffInternshipManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from Edit StaffInternshipManagementView and then display information to List StaffInternshipManagementView class</t>
+  </si>
+  <si>
+    <t>List RewardManagementView</t>
+  </si>
+  <si>
+    <t>Edit RewardManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from List RewardManagementView class</t>
+  </si>
+  <si>
+    <t>List RewardManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to List RewardManagementView class</t>
+  </si>
+  <si>
+    <t>Edit RewardManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from Edit RewardManagementView and then display information to List RewardManagementView class</t>
+  </si>
+  <si>
+    <t>ListPenaltyManagementView</t>
+  </si>
+  <si>
+    <t>EditPenaltyManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListPenaltyManagementView class</t>
+  </si>
+  <si>
+    <t>ListPenaltyManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListPenaltyManagementView class</t>
+  </si>
+  <si>
+    <t>EditPenaltyManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditPenaltyManagementView and then display information to ListPenaltyManagementView class</t>
+  </si>
+  <si>
+    <t>ListEmulationManagementView</t>
+  </si>
+  <si>
+    <t>EditEmulationManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListEmulationManagementView class</t>
+  </si>
+  <si>
+    <t>ListEmulationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListEmulationManagementView class</t>
+  </si>
+  <si>
+    <t>EditEmulationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditEmulationManagementView and then display information to ListEmulationManagementView class</t>
+  </si>
+  <si>
+    <t>List TradeUnionManagementView</t>
+  </si>
+  <si>
+    <t>Edit TradeUnionManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from List TradeUnionManagementView class</t>
+  </si>
+  <si>
+    <t>List TradeUnionManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to List TradeUnionManagementView class</t>
+  </si>
+  <si>
+    <t>Edit TradeUnionManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from Edit TradeUnionManagementView and then display information to List TradeUnionManagementView class</t>
+  </si>
+  <si>
+    <t>List TradeUnionManagementManagementView</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one person and  TradeUnionManagemention for themselves.</t>
+  </si>
+  <si>
+    <t>Edit TradeUnionManagementManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from List TradeUnionManagementManagementView class</t>
+  </si>
+  <si>
+    <t>List TradeUnionManagementManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to List TradeUnionManagementManagementView class</t>
+  </si>
+  <si>
+    <t>Edit TradeUnionManagementManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from Edit TradeUnionManagementManagementView and then display information to List TradeUnionManagementManagementView class</t>
+  </si>
+  <si>
+    <t>ListOtherManagementManagementView</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one person and OtherManagemention for themselves.</t>
+  </si>
+  <si>
+    <t>EditOtherManagementManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListOtherManagementManagementView class</t>
+  </si>
+  <si>
+    <t>ListOtherManagementManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListOtherManagementManagementView class</t>
+  </si>
+  <si>
+    <t>EditOtherManagementManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditOtherManagementManagementView and then display information to ListOtherManagementManagementView class</t>
+  </si>
+  <si>
+    <t>ListCommunistPartyManagementManagementView</t>
+  </si>
+  <si>
+    <t>Screen design class contains list data of one person and CommunistPartyManagemention for themselves.</t>
+  </si>
+  <si>
+    <t>EditCommunistPartyManagementManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListCommunistPartyManagementManagementView class</t>
+  </si>
+  <si>
+    <t>ListCommunistPartyManagementManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListCommunistPartyManagementManagementView class</t>
+  </si>
+  <si>
+    <t>EditCommunistPartyManagementManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditCommunistPartyManagementManagementView and then display information to ListCommunistPartyManagementManagementView class</t>
+  </si>
+  <si>
+    <t>sk;gfsdlkgl;s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>This class declare event hanlder to ExpandinformtionModel class used.</t>
+  </si>
+  <si>
+    <t>ListMasterThesisGuidelineView</t>
+  </si>
+  <si>
+    <t>EditMasterThesisGuidelineView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListMasterThesisGuidelineView class</t>
+  </si>
+  <si>
+    <t>ListMasterThesisGuidelineViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListMasterThesisGuidelineView class</t>
+  </si>
+  <si>
+    <t>EditMasterThesisGuidelineViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditMasterThesisGuidelineView and then display information to ListMasterThesisGuidelineView class</t>
+  </si>
+  <si>
+    <t>ListScienceResearchGuidelineOfStudeView</t>
+  </si>
+  <si>
+    <t>EditScienceResearchGuidelineOfStudeView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListScienceResearchGuidelineOfStudeView class</t>
+  </si>
+  <si>
+    <t>ListScienceResearchGuidelineOfStudeViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListScienceResearchGuidelineOfStudeView class</t>
+  </si>
+  <si>
+    <t>EditScienceResearchGuidelineOfStudeViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditScienceResearchGuidelineOfStudeView and then display information to ListScienceResearchGuidelineOfStudeView class</t>
+  </si>
+  <si>
+    <t>EditAddressView</t>
+  </si>
+  <si>
+    <t>This class used to display the information of address. This class will be called when the user input the employee information</t>
+  </si>
+  <si>
+    <t>EditBirthPlaceView</t>
+  </si>
+  <si>
+    <t>This class used to display the information of birth place. This class will be called when the user input the employee information</t>
+  </si>
+  <si>
+    <t>EditAddressViewModel</t>
+  </si>
+  <si>
+    <t>EditBirthPlaceViewModel</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to EditAddressView class</t>
+  </si>
+  <si>
+    <t>UploadEmployeeView</t>
+  </si>
+  <si>
+    <t>UploadEmployeeViewModel</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to EditBirthPlaceView class. This class will be called when the user input the employee information</t>
+  </si>
+  <si>
+    <t>This class used to display the form for upload employee information.  This class will be called when the user input the employee</t>
+  </si>
+  <si>
+    <t>This class handles upload actions and then display information to UploadEmployeeView class after reading Excel file. This class will be called when the user want to upload  the employee information from Excel file</t>
   </si>
 </sst>
 </file>
@@ -743,7 +1342,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -801,12 +1400,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -824,7 +1434,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -836,10 +1445,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -851,12 +1484,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1162,7 +1790,7 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1177,31 +1805,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
@@ -1214,7 +1842,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -1222,7 +1850,7 @@
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
@@ -1237,14 +1865,14 @@
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="18" t="s">
-        <v>142</v>
+      <c r="B4" s="12" t="s">
+        <v>139</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1252,8 +1880,8 @@
     </row>
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="18" t="s">
-        <v>143</v>
+      <c r="B5" s="12" t="s">
+        <v>140</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
@@ -1265,16 +1893,16 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="18" t="s">
-        <v>144</v>
+      <c r="B6" s="12" t="s">
+        <v>141</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>339</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1282,14 +1910,14 @@
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="18" t="s">
-        <v>145</v>
+      <c r="B7" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1297,14 +1925,14 @@
     </row>
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="18" t="s">
-        <v>146</v>
+      <c r="B8" s="12" t="s">
+        <v>143</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1312,14 +1940,14 @@
     </row>
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="18" t="s">
-        <v>147</v>
+      <c r="B9" s="12" t="s">
+        <v>144</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1327,14 +1955,14 @@
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="18" t="s">
-        <v>148</v>
+      <c r="B10" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1342,14 +1970,14 @@
     </row>
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="18" t="s">
-        <v>149</v>
+      <c r="B11" s="12" t="s">
+        <v>146</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>39</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1357,14 +1985,14 @@
     </row>
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="18" t="s">
-        <v>150</v>
+      <c r="B12" s="12" t="s">
+        <v>147</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>40</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -1372,14 +2000,14 @@
     </row>
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="18" t="s">
-        <v>166</v>
+      <c r="B13" s="12" t="s">
+        <v>163</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1387,14 +2015,14 @@
     </row>
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="18" t="s">
-        <v>167</v>
+      <c r="B14" s="12" t="s">
+        <v>164</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1402,8 +2030,8 @@
     </row>
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
-      <c r="B15" s="18" t="s">
-        <v>165</v>
+      <c r="B15" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>43</v>
@@ -1417,14 +2045,14 @@
     </row>
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="18" t="s">
-        <v>164</v>
+      <c r="B16" s="12" t="s">
+        <v>161</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>44</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1432,14 +2060,14 @@
     </row>
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="12" t="s">
         <v>37</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1447,14 +2075,14 @@
     </row>
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -1462,14 +2090,14 @@
     </row>
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="18" t="s">
-        <v>163</v>
+      <c r="B19" s="12" t="s">
+        <v>160</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>47</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -1477,14 +2105,14 @@
     </row>
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="18" t="s">
-        <v>162</v>
+      <c r="B20" s="12" t="s">
+        <v>159</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -1492,14 +2120,14 @@
     </row>
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="18" t="s">
-        <v>161</v>
+      <c r="B21" s="12" t="s">
+        <v>158</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -1507,14 +2135,14 @@
     </row>
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="18" t="s">
-        <v>160</v>
+      <c r="B22" s="12" t="s">
+        <v>157</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -1522,14 +2150,14 @@
     </row>
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="18" t="s">
-        <v>159</v>
+      <c r="B23" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>51</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -1537,8 +2165,8 @@
     </row>
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="18" t="s">
-        <v>158</v>
+      <c r="B24" s="12" t="s">
+        <v>155</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>52</v>
@@ -1552,14 +2180,14 @@
     </row>
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="18" t="s">
-        <v>157</v>
+      <c r="B25" s="12" t="s">
+        <v>154</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>53</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -1567,14 +2195,14 @@
     </row>
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="18" t="s">
-        <v>156</v>
+      <c r="B26" s="12" t="s">
+        <v>153</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>54</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -1582,14 +2210,14 @@
     </row>
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
-      <c r="B27" s="18" t="s">
-        <v>155</v>
+      <c r="B27" s="12" t="s">
+        <v>152</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>55</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -1597,14 +2225,14 @@
     </row>
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="18" t="s">
-        <v>154</v>
+      <c r="B28" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>56</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -1612,14 +2240,14 @@
     </row>
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
-      <c r="B29" s="18" t="s">
-        <v>153</v>
+      <c r="B29" s="12" t="s">
+        <v>150</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>57</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1627,28 +2255,28 @@
     </row>
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="19" t="s">
-        <v>152</v>
+      <c r="B30" s="13" t="s">
+        <v>149</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
-      <c r="B31" s="19" t="s">
-        <v>151</v>
+      <c r="B31" s="13" t="s">
+        <v>148</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -1693,102 +2321,104 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>237</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1796,102 +2426,104 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>244</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1899,102 +2531,104 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>251</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2005,7 +2639,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,83 +2650,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>101</v>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2107,102 +2741,104 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>258</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2210,102 +2846,104 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>261</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2313,102 +2951,104 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2416,102 +3056,104 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>348</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2519,102 +3161,104 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C16" activeCellId="1" sqref="C16 C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>355</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2622,102 +3266,104 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>275</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>279</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2725,102 +3371,206 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
     <col min="2" max="2" width="41.7109375" customWidth="1"/>
-    <col min="3" max="3" width="49.5703125" customWidth="1"/>
+    <col min="3" max="3" width="125.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="19" t="s">
+        <v>171</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A12" s="23"/>
+      <c r="B12" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>364</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>367</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A8"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2828,102 +3578,104 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>282</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>286</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2931,102 +3683,104 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>289</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>293</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3034,102 +3788,104 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>296</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>300</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3137,102 +3893,104 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>303</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>307</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3243,7 +4001,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C8"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3254,83 +4012,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>101</v>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
+      <c r="A7" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>121</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -3359,83 +4117,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>101</v>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
+      <c r="A7" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>129</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -3450,102 +4208,104 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>334</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="22" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>338</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3553,102 +4313,104 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>121</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3656,102 +4418,104 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="119.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>310</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>314</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3773,83 +4537,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>101</v>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
+      <c r="A7" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="23"/>
+      <c r="B8" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>137</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
-      <c r="B8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3864,102 +4628,109 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>186</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>340</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3970,7 +4741,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3981,83 +4752,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>101</v>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
+      <c r="A7" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>140</v>
+        <v>321</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4075,94 +4846,94 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="116.7109375" customWidth="1"/>
+    <col min="3" max="3" width="119" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="A1" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="15" t="s">
-        <v>101</v>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
+      <c r="A4" s="23"/>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>136</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>110</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
-        <v>88</v>
+      <c r="A7" s="22" t="s">
+        <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="16"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>140</v>
+        <v>329</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4177,102 +4948,104 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>195</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4280,102 +5053,103 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="16"/>
+      <c r="B8" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4383,102 +5157,104 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4486,102 +5262,104 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4589,10 +5367,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4603,88 +5381,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>223</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4692,102 +5472,104 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="43.7109375" customWidth="1"/>
+    <col min="3" max="3" width="118.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="23"/>
+      <c r="B4" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
+      <c r="A7" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="21"/>
+      <c r="B8" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>230</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A7:A8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Detail Design/HRM_File List.xlsx
+++ b/Detail Design/HRM_File List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="File List" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="368">
   <si>
     <t>Curriculum Tae</t>
   </si>
@@ -1460,6 +1460,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1484,7 +1485,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2335,11 +2335,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2353,7 +2353,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2364,7 +2364,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>232</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2406,7 +2406,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>236</v>
       </c>
@@ -2440,11 +2440,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2458,7 +2458,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2469,7 +2469,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>239</v>
       </c>
@@ -2500,7 +2500,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2511,7 +2511,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>243</v>
       </c>
@@ -2545,11 +2545,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2563,7 +2563,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2574,7 +2574,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>246</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2616,7 +2616,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>250</v>
       </c>
@@ -2650,11 +2650,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2668,7 +2668,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2679,7 +2679,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>100</v>
       </c>
@@ -2710,7 +2710,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2721,7 +2721,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>102</v>
       </c>
@@ -2755,11 +2755,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2773,7 +2773,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2784,7 +2784,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>253</v>
       </c>
@@ -2815,7 +2815,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2826,7 +2826,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>257</v>
       </c>
@@ -2860,11 +2860,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2878,7 +2878,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2889,7 +2889,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>260</v>
       </c>
@@ -2920,7 +2920,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -2931,7 +2931,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>264</v>
       </c>
@@ -2965,11 +2965,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -2983,7 +2983,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -2994,7 +2994,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>267</v>
       </c>
@@ -3025,7 +3025,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3036,7 +3036,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>271</v>
       </c>
@@ -3070,11 +3070,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3088,7 +3088,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3099,7 +3099,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>343</v>
       </c>
@@ -3130,7 +3130,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3141,7 +3141,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>347</v>
       </c>
@@ -3175,11 +3175,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3193,7 +3193,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3204,7 +3204,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>350</v>
       </c>
@@ -3235,7 +3235,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3246,7 +3246,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>354</v>
       </c>
@@ -3280,11 +3280,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3298,7 +3298,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3309,7 +3309,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>274</v>
       </c>
@@ -3340,7 +3340,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3351,7 +3351,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>278</v>
       </c>
@@ -3373,7 +3373,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
@@ -3385,11 +3385,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3403,7 +3403,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>171</v>
       </c>
       <c r="B3" s="14" t="s">
@@ -3414,7 +3414,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
         <v>165</v>
       </c>
@@ -3423,7 +3423,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
         <v>166</v>
       </c>
@@ -3432,7 +3432,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
         <v>167</v>
       </c>
@@ -3441,7 +3441,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
         <v>168</v>
       </c>
@@ -3450,7 +3450,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
         <v>170</v>
       </c>
@@ -3481,7 +3481,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -3492,7 +3492,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
         <v>172</v>
       </c>
@@ -3548,7 +3548,7 @@
       <c r="A18" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="17" t="s">
         <v>363</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -3559,7 +3559,7 @@
       <c r="A19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B19" s="25" t="s">
+      <c r="B19" s="17" t="s">
         <v>364</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3592,11 +3592,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3610,7 +3610,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3621,7 +3621,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>281</v>
       </c>
@@ -3652,7 +3652,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3663,7 +3663,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>285</v>
       </c>
@@ -3697,11 +3697,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3715,7 +3715,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3726,7 +3726,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>288</v>
       </c>
@@ -3757,7 +3757,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3768,7 +3768,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>292</v>
       </c>
@@ -3802,11 +3802,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3820,7 +3820,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3831,7 +3831,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>295</v>
       </c>
@@ -3862,7 +3862,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3873,7 +3873,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>299</v>
       </c>
@@ -3907,11 +3907,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -3925,7 +3925,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -3936,7 +3936,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>302</v>
       </c>
@@ -3967,7 +3967,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -3978,7 +3978,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>306</v>
       </c>
@@ -4012,11 +4012,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4030,7 +4030,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4041,7 +4041,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
@@ -4072,7 +4072,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4083,7 +4083,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>120</v>
       </c>
@@ -4117,11 +4117,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4135,7 +4135,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4146,7 +4146,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>124</v>
       </c>
@@ -4177,7 +4177,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4188,7 +4188,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>128</v>
       </c>
@@ -4222,11 +4222,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4240,7 +4240,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4251,7 +4251,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>333</v>
       </c>
@@ -4282,7 +4282,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4293,7 +4293,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>337</v>
       </c>
@@ -4327,11 +4327,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4345,7 +4345,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4356,7 +4356,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>116</v>
       </c>
@@ -4387,7 +4387,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4398,7 +4398,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>120</v>
       </c>
@@ -4432,11 +4432,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4450,7 +4450,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4461,7 +4461,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>309</v>
       </c>
@@ -4492,7 +4492,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4503,7 +4503,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>313</v>
       </c>
@@ -4537,11 +4537,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4555,7 +4555,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4566,7 +4566,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>132</v>
       </c>
@@ -4597,7 +4597,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4608,7 +4608,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>136</v>
       </c>
@@ -4642,11 +4642,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4660,7 +4660,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4671,7 +4671,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>183</v>
       </c>
@@ -4702,7 +4702,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4713,7 +4713,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>187</v>
       </c>
@@ -4752,11 +4752,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4770,7 +4770,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4781,7 +4781,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>317</v>
       </c>
@@ -4812,7 +4812,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4823,7 +4823,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>321</v>
       </c>
@@ -4857,11 +4857,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>111</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4875,7 +4875,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4886,7 +4886,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>325</v>
       </c>
@@ -4917,7 +4917,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="23" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -4928,7 +4928,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
         <v>329</v>
       </c>
@@ -4948,10 +4948,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4962,11 +4962,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -4980,7 +4980,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -4991,7 +4991,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>190</v>
       </c>
@@ -5022,7 +5022,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5033,12 +5033,34 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>194</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5067,11 +5089,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -5085,7 +5107,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5096,7 +5118,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>197</v>
       </c>
@@ -5171,11 +5193,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -5189,7 +5211,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5200,7 +5222,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>204</v>
       </c>
@@ -5231,7 +5253,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5242,7 +5264,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>208</v>
       </c>
@@ -5276,11 +5298,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -5294,7 +5316,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5305,7 +5327,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>211</v>
       </c>
@@ -5336,7 +5358,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5347,7 +5369,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>215</v>
       </c>
@@ -5381,11 +5403,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -5399,7 +5421,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5410,7 +5432,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>218</v>
       </c>
@@ -5441,7 +5463,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5452,7 +5474,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>222</v>
       </c>
@@ -5486,11 +5508,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
@@ -5504,7 +5526,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>99</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -5515,7 +5537,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="23"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
         <v>225</v>
       </c>
@@ -5546,7 +5568,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>87</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -5557,7 +5579,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
         <v>229</v>
       </c>

--- a/Detail Design/HRM_File List.xlsx
+++ b/Detail Design/HRM_File List.xlsx
@@ -17,7 +17,7 @@
     <sheet name="InternalTraining" sheetId="13" r:id="rId8"/>
     <sheet name="LecturePosition" sheetId="14" r:id="rId9"/>
     <sheet name="TaskNotebook" sheetId="15" r:id="rId10"/>
-    <sheet name="Appoint" sheetId="16" r:id="rId11"/>
+    <sheet name="Mobilization" sheetId="16" r:id="rId11"/>
     <sheet name="Certificate" sheetId="17" r:id="rId12"/>
     <sheet name="Subject" sheetId="18" r:id="rId13"/>
     <sheet name="Artical" sheetId="19" r:id="rId14"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="367">
   <si>
     <t>Curriculum Tae</t>
   </si>
@@ -128,9 +128,6 @@
     <t>TaskNotebook</t>
   </si>
   <si>
-    <t>Appoint</t>
-  </si>
-  <si>
     <t>Certificate</t>
   </si>
   <si>
@@ -879,27 +876,6 @@
     <t>This class handles actions that requested from EditTaskNotebookManagementView and then display information to ListTaskNotebookManagementView class</t>
   </si>
   <si>
-    <t>ListAppointManagementView</t>
-  </si>
-  <si>
-    <t>EditAppointManagementView</t>
-  </si>
-  <si>
-    <t>GUI Class contains operations invoked from ListAppointManagementView class</t>
-  </si>
-  <si>
-    <t>ListAppointManagementViewModel.cs</t>
-  </si>
-  <si>
-    <t>This class handles actions and then display information to ListAppointManagementView class</t>
-  </si>
-  <si>
-    <t>EditAppointManagementViewModel.cs</t>
-  </si>
-  <si>
-    <t>This class handles actions that requested from EditAppointManagementView and then display information to ListAppointManagementView class</t>
-  </si>
-  <si>
     <t>ListCertificateManagementView</t>
   </si>
   <si>
@@ -1185,9 +1161,6 @@
     <t>sk;gfsdlkgl;s</t>
   </si>
   <si>
-    <t xml:space="preserve">A </t>
-  </si>
-  <si>
     <t>This class declare event hanlder to ExpandinformtionModel class used.</t>
   </si>
   <si>
@@ -1267,6 +1240,30 @@
   </si>
   <si>
     <t>This class handles upload actions and then display information to UploadEmployeeView class after reading Excel file. This class will be called when the user want to upload  the employee information from Excel file</t>
+  </si>
+  <si>
+    <t>Mobilization</t>
+  </si>
+  <si>
+    <t>ListMobilizationManagementView</t>
+  </si>
+  <si>
+    <t>EditMobilizationManagementView</t>
+  </si>
+  <si>
+    <t>GUI Class contains operations invoked from ListMobilizationManagementView class</t>
+  </si>
+  <si>
+    <t>ListMobilizationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions and then display information to ListMobilizationManagementView class</t>
+  </si>
+  <si>
+    <t>EditMobilizationManagementViewModel.cs</t>
+  </si>
+  <si>
+    <t>This class handles actions that requested from EditMobilizationManagementView and then display information to ListMobilizationManagementView class</t>
   </si>
 </sst>
 </file>
@@ -1806,25 +1803,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="7" t="s">
-        <v>84</v>
-      </c>
       <c r="C1" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.25">
@@ -1842,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>3</v>
@@ -1857,7 +1854,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -1866,13 +1863,13 @@
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="12" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1881,13 +1878,13 @@
     <row r="5" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>11</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -1896,13 +1893,13 @@
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="12" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1911,13 +1908,13 @@
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -1926,13 +1923,13 @@
     <row r="8" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>18</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
@@ -1941,13 +1938,13 @@
     <row r="9" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1956,13 +1953,13 @@
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1971,13 +1968,13 @@
     <row r="11" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -1986,13 +1983,13 @@
     <row r="12" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -2001,13 +1998,13 @@
     <row r="13" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -2016,13 +2013,13 @@
     <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -2031,13 +2028,13 @@
     <row r="15" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="12" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
@@ -2046,13 +2043,13 @@
     <row r="16" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -2061,13 +2058,13 @@
     <row r="17" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -2076,13 +2073,13 @@
     <row r="18" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
@@ -2091,13 +2088,13 @@
     <row r="19" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
@@ -2106,13 +2103,13 @@
     <row r="20" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -2121,13 +2118,13 @@
     <row r="21" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
@@ -2136,13 +2133,13 @@
     <row r="22" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
@@ -2151,13 +2148,13 @@
     <row r="23" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
@@ -2166,13 +2163,13 @@
     <row r="24" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="12" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -2181,13 +2178,13 @@
     <row r="25" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -2196,13 +2193,13 @@
     <row r="26" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -2211,13 +2208,13 @@
     <row r="27" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="12" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -2226,13 +2223,13 @@
     <row r="28" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -2241,13 +2238,13 @@
     <row r="29" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -2256,13 +2253,13 @@
     <row r="30" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C30" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -2270,13 +2267,13 @@
     <row r="31" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>112</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>113</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -2343,75 +2340,75 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>232</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>234</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>236</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2428,8 +2425,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2441,82 +2438,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>22</v>
+        <v>359</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>238</v>
+        <v>360</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>361</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>240</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>363</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>242</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>243</v>
+        <v>365</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>244</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -2546,82 +2543,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2651,82 +2648,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2744,7 +2741,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2756,82 +2753,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>255</v>
+        <v>247</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>256</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2861,82 +2858,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>251</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2966,82 +2963,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3059,7 +3056,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3071,82 +3068,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3164,7 +3161,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" activeCellId="1" sqref="C16 C16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,82 +3173,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -3281,82 +3278,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -3374,7 +3371,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3393,177 +3390,177 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="21"/>
       <c r="B4" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="21"/>
       <c r="B5" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="24"/>
       <c r="B12" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3593,82 +3590,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3686,7 +3683,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3698,82 +3695,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3803,82 +3800,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>299</v>
+        <v>291</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3908,82 +3905,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4013,82 +4010,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4118,82 +4115,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>122</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>124</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>128</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -4223,82 +4220,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
     </row>
   </sheetData>
@@ -4328,82 +4325,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>116</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>120</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4433,82 +4430,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>310</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4538,82 +4535,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>134</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>136</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -4628,10 +4625,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="B18" sqref="B18:B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4650,80 +4647,75 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>183</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>185</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>187</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -4753,82 +4745,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4858,82 +4850,82 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B1" s="19"/>
       <c r="C1" s="19"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="24"/>
       <c r="B8" s="3" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -4951,7 +4943,7 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4970,97 +4962,97 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>194</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -5097,75 +5089,75 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>197</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>201</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5201,75 +5193,75 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>208</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>
@@ -5306,75 +5298,75 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>211</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>215</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>216</v>
       </c>
     </row>
   </sheetData>
@@ -5411,75 +5403,75 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>218</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>220</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>222</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -5516,75 +5508,75 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>225</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>227</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>229</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/Detail Design/HRM_File List.xlsx
+++ b/Detail Design/HRM_File List.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="854" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="File List" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="367">
   <si>
     <t>Curriculum Tae</t>
   </si>
@@ -1413,7 +1413,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1480,6 +1480,23 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3368,10 +3385,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3447,7 +3464,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="1" t="s">
         <v>169</v>
       </c>
@@ -3456,73 +3473,76 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="21"/>
+      <c r="B9" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="21"/>
+      <c r="B10" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+      <c r="B11" s="17" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="24"/>
-      <c r="B12" s="3" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="21"/>
+      <c r="B15" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A16" s="21"/>
       <c r="B16" s="1" t="s">
         <v>351</v>
       </c>
@@ -3530,44 +3550,59 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21"/>
+      <c r="B17" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="5" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>354</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="17" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="28" t="s">
         <v>355</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C18" s="5" t="s">
         <v>358</v>
       </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="26"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="26"/>
+      <c r="B21" s="26"/>
+      <c r="C21" s="26"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="26"/>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="26"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="26"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="26"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="26"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A8"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4942,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4983,7 +5018,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="24"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="1" t="s">
         <v>189</v>
       </c>
@@ -4992,62 +5027,58 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>88</v>
-      </c>
+      <c r="A5" s="24"/>
       <c r="B5" s="1" t="s">
-        <v>2</v>
+        <v>347</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>332</v>
+        <v>348</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="3" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="32"/>
+      <c r="B9" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="A10" s="31"/>
       <c r="B10" s="1" t="s">
         <v>351</v>
       </c>
@@ -5058,8 +5089,8 @@
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A8:A10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
